--- a/HW1/result/statistic.xlsx
+++ b/HW1/result/statistic.xlsx
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,6 +104,10 @@
   </si>
   <si>
     <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_stage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,23 +169,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="statistic4" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="statistic3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="statistic" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="statistic5" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="statistic_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="statistic4" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="statistic3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="statistic" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,9 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
@@ -508,10 +506,10 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -523,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -535,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -547,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1" t="s">
         <v>0</v>
@@ -559,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="R1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S1" t="s">
         <v>0</v>

--- a/HW1/result/statistic.xlsx
+++ b/HW1/result/statistic.xlsx
@@ -477,7 +477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
